--- a/nr-prepare-release-2.0.0/ig/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/nr-prepare-release-2.0.0/ig/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T18:03:32+00:00</t>
+    <t>2024-09-22T18:53:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-prepare-release-2.0.0/ig/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/nr-prepare-release-2.0.0/ig/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T18:53:33+00:00</t>
+    <t>2024-09-22T18:54:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
